--- a/src/main/resources/config/stage/Data/TestData.xlsx
+++ b/src/main/resources/config/stage/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -15,21 +15,22 @@
     <sheet name="CurrencyExchangeRates" sheetId="16" r:id="rId6"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="17" r:id="rId7"/>
     <sheet name="CardHolder" sheetId="19" r:id="rId8"/>
-    <sheet name="Surcharge_Plan" sheetId="20" r:id="rId9"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId10"/>
-    <sheet name="AccountHeadMapping_S205175" sheetId="18" r:id="rId11"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId12"/>
-    <sheet name="Events Configuration" sheetId="14" r:id="rId13"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId14"/>
-    <sheet name="Institute" sheetId="5" r:id="rId15"/>
-    <sheet name="QMRReporting" sheetId="12" r:id="rId16"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId9"/>
+    <sheet name="AccountHeadMapping_S205175" sheetId="18" r:id="rId10"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId11"/>
+    <sheet name="Events Configuration" sheetId="14" r:id="rId12"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId13"/>
+    <sheet name="Institute" sheetId="5" r:id="rId14"/>
+    <sheet name="QMRReporting" sheetId="12" r:id="rId15"/>
+    <sheet name="Wallet_Plan" sheetId="20" r:id="rId16"/>
+    <sheet name="Surcharge_Plan" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="639">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1868,67 +1869,85 @@
     <t>TC_visaMoneyTransfer</t>
   </si>
   <si>
+    <t>Credit [C]</t>
+  </si>
+  <si>
+    <t>CREDITH [000099]</t>
+  </si>
+  <si>
+    <t>TanmayW</t>
+  </si>
+  <si>
+    <t>TC542586_Define_Wallet_Plan</t>
+  </si>
+  <si>
+    <t>WP_USAGE</t>
+  </si>
+  <si>
+    <t>WP_PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>WP_CURRENCY</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>December/16/2019</t>
+  </si>
+  <si>
+    <t>December/16/2018</t>
+  </si>
+  <si>
+    <t>MCG CODE 1 [538]</t>
+  </si>
+  <si>
+    <t>System Calculated</t>
+  </si>
+  <si>
+    <t>USD [840]</t>
+  </si>
+  <si>
+    <t>TESTA1</t>
+  </si>
+  <si>
+    <t>TC554186_Mandatory_Field_Validation</t>
+  </si>
+  <si>
+    <t>TC554186_Define_Surcharge_Plan</t>
+  </si>
+  <si>
+    <t>Maximum Surcharge Amount</t>
+  </si>
+  <si>
+    <t>Minimum Surcharge Amount</t>
+  </si>
+  <si>
+    <t>Fixed Surcharge Amount</t>
+  </si>
+  <si>
+    <t>Surcharge Rate(%)</t>
+  </si>
+  <si>
+    <t>Fee Transaction Description</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>Surcharge Source</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
     <t>Surcharge Plan Code</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Surcharge Source</t>
-  </si>
-  <si>
-    <t>MCG</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Fee Transaction Description</t>
-  </si>
-  <si>
-    <t>Surcharge Rate(%)</t>
-  </si>
-  <si>
-    <t>Fixed Surcharge Amount</t>
-  </si>
-  <si>
-    <t>Minimum Surcharge Amount</t>
-  </si>
-  <si>
-    <t>Maximum Surcharge Amount</t>
-  </si>
-  <si>
-    <t>TC554186_Define_Surcharge_Plan</t>
-  </si>
-  <si>
-    <t>TanmayW</t>
-  </si>
-  <si>
-    <t>CREDITH [000099]</t>
-  </si>
-  <si>
-    <t>TESTA1</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>USD [840]</t>
-  </si>
-  <si>
-    <t>System Calculated</t>
-  </si>
-  <si>
-    <t>MCG CODE 1 [538]</t>
-  </si>
-  <si>
-    <t>December/16/2018</t>
-  </si>
-  <si>
-    <t>December/16/2019</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1955,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2057,9 +2076,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3065,298 +3084,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" s="32">
-        <v>1888887</v>
-      </c>
-      <c r="M2" s="32">
-        <v>55554</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L3" s="32">
-        <v>99999988</v>
-      </c>
-      <c r="M3" s="32">
-        <v>88887</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L4" s="32">
-        <v>99999987</v>
-      </c>
-      <c r="M4" s="32">
-        <v>88884</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L5" s="32">
-        <v>99999977</v>
-      </c>
-      <c r="M5" s="32">
-        <v>88884</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="32">
-        <v>99999989</v>
-      </c>
-      <c r="M6" s="32">
-        <v>88884</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3711,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3856,7 +3583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -4011,7 +3738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4131,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -4356,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
@@ -4872,6 +4599,288 @@
       </c>
       <c r="R9" t="s">
         <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2">
+        <v>4656</v>
+      </c>
+      <c r="E2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M1" t="s">
+        <v>633</v>
+      </c>
+      <c r="N1" t="s">
+        <v>632</v>
+      </c>
+      <c r="O1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>629</v>
+      </c>
+      <c r="R1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2">
+        <v>4656</v>
+      </c>
+      <c r="E2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K2" t="s">
+        <v>622</v>
+      </c>
+      <c r="L2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N2" t="s">
+        <v>619</v>
+      </c>
+      <c r="O2">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D3">
+        <v>4656</v>
+      </c>
+      <c r="E3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3" t="s">
+        <v>622</v>
+      </c>
+      <c r="L3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" t="s">
+        <v>619</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9591,7 +9600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -12311,143 +12320,289 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="H1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J1" t="s">
-        <v>464</v>
-      </c>
-      <c r="K1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L1" t="s">
-        <v>616</v>
-      </c>
-      <c r="M1" t="s">
-        <v>617</v>
-      </c>
-      <c r="N1" t="s">
-        <v>618</v>
-      </c>
-      <c r="O1" t="s">
-        <v>619</v>
-      </c>
-      <c r="P1" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>621</v>
-      </c>
-      <c r="R1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="O1" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="C2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="32">
         <v>4656</v>
       </c>
-      <c r="E2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I2" t="s">
-        <v>629</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="K2" t="s">
-        <v>630</v>
-      </c>
-      <c r="L2" t="s">
-        <v>631</v>
-      </c>
-      <c r="M2" t="s">
-        <v>632</v>
-      </c>
-      <c r="N2" t="s">
-        <v>627</v>
-      </c>
-      <c r="O2">
-        <v>0.01</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="G2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="L2" s="32">
+        <v>1888887</v>
+      </c>
+      <c r="M2" s="32">
+        <v>55554</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="32">
+        <v>4656</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="32">
+        <v>99999988</v>
+      </c>
+      <c r="M3" s="32">
+        <v>88887</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="32">
+        <v>4656</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="32">
+        <v>99999987</v>
+      </c>
+      <c r="M4" s="32">
+        <v>88884</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4656</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" s="32">
+        <v>99999977</v>
+      </c>
+      <c r="M5" s="32">
+        <v>88884</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="32">
+        <v>4656</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="32">
+        <v>99999989</v>
+      </c>
+      <c r="M6" s="32">
+        <v>88884</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/stage/Data/TestData.xlsx
+++ b/src/main/resources/config/stage/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="638">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1873,9 +1873,6 @@
   </si>
   <si>
     <t>CREDITH [000099]</t>
-  </si>
-  <si>
-    <t>TanmayW</t>
   </si>
   <si>
     <t>TC542586_Define_Wallet_Plan</t>
@@ -4610,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,24 +4643,24 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>614</v>
+        <v>353</v>
       </c>
       <c r="D2">
         <v>4656</v>
@@ -4690,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,54 +4729,54 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G1" t="s">
         <v>215</v>
       </c>
       <c r="H1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J1" t="s">
         <v>464</v>
       </c>
       <c r="K1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B2" t="s">
         <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>614</v>
+        <v>353</v>
       </c>
       <c r="D2">
         <v>4656</v>
@@ -4788,31 +4785,31 @@
         <v>613</v>
       </c>
       <c r="F2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J2" t="s">
         <v>466</v>
       </c>
       <c r="K2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O2">
         <v>0.01</v>
@@ -4829,13 +4826,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
         <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>614</v>
+        <v>353</v>
       </c>
       <c r="D3">
         <v>4656</v>
@@ -4844,31 +4841,31 @@
         <v>613</v>
       </c>
       <c r="F3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J3" t="s">
         <v>466</v>
       </c>
       <c r="K3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O3">
         <v>0.01</v>

--- a/src/main/resources/config/stage/Data/TestData.xlsx
+++ b/src/main/resources/config/stage/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="639">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1945,6 +1945,9 @@
   </si>
   <si>
     <t>Surcharge Plan Code</t>
+  </si>
+  <si>
+    <t>IssuingR1</t>
   </si>
 </sst>
 </file>
@@ -2443,20 +2446,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2863,7 @@
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
     </row>
-    <row r="3" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -3049,27 +3052,27 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -3087,21 +3090,21 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +3145,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>280</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>480</v>
       </c>
@@ -3212,7 +3215,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>482</v>
       </c>
@@ -3249,7 +3252,7 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>485</v>
       </c>
@@ -3284,7 +3287,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>486</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>488</v>
       </c>
@@ -3358,7 +3361,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>490</v>
       </c>
@@ -3395,7 +3398,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>493</v>
       </c>
@@ -3443,21 +3446,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3488,7 +3491,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>281</v>
       </c>
@@ -3517,7 +3520,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>283</v>
       </c>
@@ -3546,7 +3549,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
@@ -3588,28 +3591,28 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>380</v>
       </c>
@@ -3743,21 +3746,21 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3788,7 +3791,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>278</v>
       </c>
@@ -3859,39 +3862,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3983,12 +3986,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>238</v>
@@ -4088,12 +4091,12 @@
       <selection activeCell="B1" sqref="B1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4150,7 +4153,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>346</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -4611,22 +4614,22 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>614</v>
       </c>
@@ -4687,32 +4690,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>626</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>625</v>
       </c>
@@ -4893,23 +4896,23 @@
       <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" customWidth="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.5703125" customWidth="1"/>
-    <col min="100" max="100" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.44140625" customWidth="1"/>
+    <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.5546875" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>129</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -7213,513 +7216,513 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
       <c r="CV9"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV10"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV11"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV12"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV13"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV14"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV15"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
       <c r="CV16"/>
     </row>
-    <row r="17" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV17"/>
     </row>
-    <row r="18" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV18"/>
     </row>
-    <row r="19" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV19"/>
     </row>
-    <row r="20" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV20"/>
     </row>
-    <row r="21" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="21" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV21"/>
     </row>
-    <row r="22" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="22" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV22"/>
     </row>
-    <row r="23" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="23" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV23"/>
     </row>
-    <row r="24" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="24" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV24"/>
     </row>
-    <row r="25" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="25" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV25"/>
     </row>
-    <row r="26" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="26" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV26"/>
     </row>
-    <row r="27" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="27" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV27"/>
     </row>
-    <row r="28" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="28" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV28"/>
     </row>
-    <row r="29" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="29" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV29"/>
     </row>
-    <row r="30" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="30" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV30"/>
     </row>
-    <row r="31" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="31" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV31"/>
     </row>
-    <row r="32" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="32" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV32"/>
     </row>
-    <row r="33" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="33" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV33"/>
     </row>
-    <row r="34" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="34" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV34"/>
     </row>
-    <row r="35" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="35" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV35"/>
     </row>
-    <row r="36" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="36" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV36"/>
     </row>
-    <row r="37" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="37" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV37"/>
     </row>
-    <row r="38" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="38" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV38"/>
     </row>
-    <row r="39" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="39" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV39"/>
     </row>
-    <row r="40" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="40" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV40"/>
     </row>
-    <row r="41" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="41" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV41"/>
     </row>
-    <row r="42" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="42" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV42"/>
     </row>
-    <row r="43" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="43" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV43"/>
     </row>
-    <row r="44" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="44" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV44"/>
     </row>
-    <row r="45" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="45" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV45"/>
     </row>
-    <row r="46" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="46" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV46"/>
     </row>
-    <row r="47" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="47" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV47"/>
     </row>
-    <row r="48" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="48" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV48"/>
     </row>
-    <row r="49" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="49" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV49"/>
     </row>
-    <row r="50" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="50" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV50"/>
     </row>
-    <row r="51" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="51" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV51"/>
     </row>
-    <row r="52" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="52" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV52"/>
     </row>
-    <row r="53" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="53" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV53"/>
     </row>
-    <row r="54" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="54" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV54"/>
     </row>
-    <row r="55" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="55" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV55"/>
     </row>
-    <row r="56" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="56" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV56"/>
     </row>
-    <row r="57" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="57" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV57"/>
     </row>
-    <row r="58" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="58" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV58"/>
     </row>
-    <row r="59" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="59" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV59"/>
     </row>
-    <row r="60" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="60" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV60"/>
     </row>
-    <row r="61" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="61" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV61"/>
     </row>
-    <row r="62" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="62" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV62"/>
     </row>
-    <row r="63" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="63" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV63"/>
     </row>
-    <row r="64" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="64" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV64"/>
     </row>
-    <row r="65" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="65" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV65"/>
     </row>
-    <row r="66" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="66" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV66"/>
     </row>
-    <row r="67" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="67" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV67"/>
     </row>
-    <row r="68" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="68" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV68"/>
     </row>
-    <row r="69" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="69" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV69"/>
     </row>
-    <row r="70" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="70" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV70"/>
     </row>
-    <row r="71" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="71" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV71"/>
     </row>
-    <row r="72" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="72" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV72"/>
     </row>
-    <row r="73" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="73" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV73"/>
     </row>
-    <row r="74" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="74" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV74"/>
     </row>
-    <row r="75" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="75" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV75"/>
     </row>
-    <row r="76" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="76" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV76"/>
     </row>
-    <row r="77" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="77" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV77"/>
     </row>
-    <row r="78" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="78" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV78"/>
     </row>
-    <row r="79" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="79" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV79"/>
     </row>
-    <row r="80" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="80" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV80"/>
     </row>
-    <row r="81" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="81" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV81"/>
     </row>
-    <row r="82" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="82" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV82"/>
     </row>
-    <row r="83" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="83" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV83"/>
     </row>
-    <row r="84" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="84" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV84"/>
     </row>
-    <row r="85" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="85" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV85"/>
     </row>
-    <row r="86" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="86" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV86"/>
     </row>
-    <row r="87" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="87" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV87"/>
     </row>
-    <row r="88" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="88" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV88"/>
     </row>
-    <row r="89" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="89" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV89"/>
     </row>
-    <row r="90" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="90" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV90"/>
     </row>
-    <row r="91" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="91" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV91"/>
     </row>
-    <row r="92" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="92" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV92"/>
     </row>
-    <row r="93" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="93" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV93"/>
     </row>
-    <row r="94" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="94" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV94"/>
     </row>
-    <row r="95" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="95" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV95"/>
     </row>
-    <row r="96" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="96" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV96"/>
     </row>
-    <row r="97" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="97" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV97"/>
     </row>
-    <row r="98" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="98" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV98"/>
     </row>
-    <row r="99" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="99" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV99"/>
     </row>
-    <row r="100" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="100" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV100"/>
     </row>
-    <row r="101" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="101" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV101"/>
     </row>
-    <row r="102" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="102" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV102"/>
     </row>
-    <row r="103" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="103" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV103"/>
     </row>
-    <row r="104" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="104" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV104"/>
     </row>
-    <row r="105" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="105" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV105"/>
     </row>
-    <row r="106" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="106" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV106"/>
     </row>
-    <row r="107" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="107" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV107"/>
     </row>
-    <row r="108" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="108" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV108"/>
     </row>
-    <row r="109" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="109" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV109"/>
     </row>
-    <row r="110" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="110" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV110"/>
     </row>
-    <row r="111" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="111" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV111"/>
     </row>
-    <row r="112" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="112" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV112"/>
     </row>
-    <row r="113" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="113" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV113"/>
     </row>
-    <row r="114" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="114" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV114"/>
     </row>
-    <row r="115" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="115" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV115"/>
     </row>
-    <row r="116" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="116" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV116"/>
     </row>
-    <row r="117" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="117" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV117"/>
     </row>
-    <row r="118" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="118" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV118"/>
     </row>
-    <row r="119" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="119" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV119"/>
     </row>
-    <row r="120" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="120" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV120"/>
     </row>
-    <row r="121" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="121" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV121"/>
     </row>
-    <row r="122" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="122" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV122"/>
     </row>
-    <row r="123" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="123" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV123"/>
     </row>
-    <row r="124" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="124" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV124"/>
     </row>
-    <row r="125" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="125" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV125"/>
     </row>
-    <row r="126" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="126" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV126"/>
     </row>
-    <row r="127" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="127" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV127"/>
     </row>
-    <row r="128" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="128" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV128"/>
     </row>
-    <row r="129" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="129" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV129"/>
     </row>
-    <row r="130" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="130" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV130"/>
     </row>
-    <row r="131" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="131" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV131"/>
     </row>
-    <row r="132" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="132" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV132"/>
     </row>
-    <row r="133" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="133" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV133"/>
     </row>
-    <row r="134" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="134" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV134"/>
     </row>
-    <row r="135" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="135" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV135"/>
     </row>
-    <row r="136" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="136" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV136"/>
     </row>
-    <row r="137" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="137" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV137"/>
     </row>
-    <row r="138" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="138" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV138"/>
     </row>
-    <row r="139" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="139" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV139"/>
     </row>
-    <row r="140" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="140" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV140"/>
     </row>
-    <row r="141" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="141" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV141"/>
     </row>
-    <row r="142" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="142" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV142"/>
     </row>
-    <row r="143" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="143" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV143"/>
     </row>
-    <row r="144" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="144" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV144"/>
     </row>
-    <row r="145" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="145" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV145"/>
     </row>
-    <row r="146" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="146" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV146"/>
     </row>
-    <row r="147" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="147" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV147"/>
     </row>
-    <row r="148" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="148" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV148"/>
     </row>
-    <row r="149" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="149" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV149"/>
     </row>
-    <row r="150" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="150" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV150"/>
     </row>
-    <row r="151" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="151" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV151"/>
     </row>
-    <row r="152" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="152" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV152"/>
     </row>
-    <row r="153" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="153" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV153"/>
     </row>
-    <row r="154" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="154" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV154"/>
     </row>
-    <row r="155" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="155" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV155"/>
     </row>
-    <row r="156" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="156" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV156"/>
     </row>
-    <row r="157" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="157" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV157"/>
     </row>
-    <row r="158" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="158" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV158"/>
     </row>
-    <row r="159" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="159" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV159"/>
     </row>
-    <row r="160" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="160" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV160"/>
     </row>
-    <row r="161" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="161" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV161"/>
     </row>
-    <row r="162" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="162" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV162"/>
     </row>
-    <row r="163" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="163" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV163"/>
     </row>
-    <row r="164" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="164" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV164"/>
     </row>
-    <row r="165" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="165" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV165"/>
     </row>
-    <row r="166" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="166" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV166"/>
     </row>
-    <row r="167" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="167" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV167"/>
     </row>
-    <row r="168" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="168" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV168"/>
     </row>
-    <row r="169" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="169" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV169"/>
     </row>
-    <row r="170" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="170" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV170"/>
     </row>
-    <row r="171" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="171" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV171"/>
     </row>
-    <row r="172" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="172" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV172"/>
     </row>
-    <row r="173" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="173" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV173"/>
     </row>
-    <row r="174" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="174" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV174"/>
     </row>
-    <row r="175" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="175" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV175"/>
     </row>
-    <row r="176" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="176" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV176"/>
     </row>
-    <row r="177" spans="100:100" x14ac:dyDescent="0.25">
+    <row r="177" spans="100:100" x14ac:dyDescent="0.3">
       <c r="CV177"/>
     </row>
   </sheetData>
@@ -7736,18 +7739,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -7827,7 +7830,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>193</v>
       </c>
@@ -7897,7 +7900,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -7929,22 +7932,22 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="2"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="2"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="2"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -7961,20 +7964,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
     <col min="19" max="19" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>365</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>366</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>368</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>369</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
@@ -8344,26 +8347,26 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="31"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="22.7109375" style="31" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="2" width="22.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="22.6640625" style="31" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>389</v>
       </c>
@@ -8501,7 +8504,7 @@
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>392</v>
       </c>
@@ -8546,7 +8549,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>396</v>
       </c>
@@ -8591,7 +8594,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>399</v>
       </c>
@@ -8636,7 +8639,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
@@ -8726,7 +8729,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>404</v>
       </c>
@@ -8767,7 +8770,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>405</v>
       </c>
@@ -8808,7 +8811,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>406</v>
       </c>
@@ -8849,7 +8852,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>409</v>
       </c>
@@ -8892,7 +8895,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>411</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>413</v>
       </c>
@@ -8978,7 +8981,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -9021,7 +9024,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -9064,7 +9067,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
@@ -9107,7 +9110,7 @@
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -9168,7 +9171,7 @@
       </c>
       <c r="AA17" s="32"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>426</v>
       </c>
@@ -9223,7 +9226,7 @@
       </c>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>430</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>433</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>435</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>437</v>
       </c>
@@ -9464,26 +9467,26 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="31" customWidth="1"/>
     <col min="5" max="5" width="15" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="31"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="31"/>
+    <col min="6" max="6" width="14.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9530,7 +9533,7 @@
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>447</v>
       </c>
@@ -9573,17 +9576,17 @@
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
@@ -9601,20 +9604,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>459</v>
       </c>
@@ -9699,58 +9702,58 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="30.85546875" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
-    <col min="20" max="20" width="31.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="43" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="24.28515625" customWidth="1"/>
-    <col min="25" max="25" width="31.5703125" customWidth="1"/>
-    <col min="26" max="26" width="33.5703125" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="30.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="30.44140625" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" customWidth="1"/>
+    <col min="21" max="21" width="23.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="43" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
+    <col min="24" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" customWidth="1"/>
+    <col min="26" max="26" width="33.5546875" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
-    <col min="29" max="29" width="30.5703125" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" customWidth="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1"/>
-    <col min="32" max="32" width="45.28515625" customWidth="1"/>
-    <col min="33" max="33" width="56.7109375" customWidth="1"/>
-    <col min="34" max="34" width="41.140625" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" customWidth="1"/>
-    <col min="37" max="37" width="22.85546875" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" customWidth="1"/>
-    <col min="39" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="42" width="22.5703125" customWidth="1"/>
-    <col min="43" max="43" width="24.42578125" customWidth="1"/>
-    <col min="44" max="44" width="20.140625" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" customWidth="1"/>
-    <col min="46" max="46" width="23.7109375" customWidth="1"/>
-    <col min="47" max="47" width="23.5703125" customWidth="1"/>
-    <col min="48" max="48" width="29.7109375" customWidth="1"/>
-    <col min="49" max="49" width="28.85546875" customWidth="1"/>
-    <col min="50" max="55" width="24.28515625" customWidth="1"/>
+    <col min="29" max="29" width="30.5546875" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" customWidth="1"/>
+    <col min="31" max="31" width="22.88671875" customWidth="1"/>
+    <col min="32" max="32" width="45.33203125" customWidth="1"/>
+    <col min="33" max="33" width="56.6640625" customWidth="1"/>
+    <col min="34" max="34" width="41.109375" customWidth="1"/>
+    <col min="35" max="35" width="16.5546875" customWidth="1"/>
+    <col min="36" max="36" width="19.6640625" customWidth="1"/>
+    <col min="37" max="37" width="22.88671875" customWidth="1"/>
+    <col min="38" max="38" width="18.44140625" customWidth="1"/>
+    <col min="39" max="40" width="22.33203125" customWidth="1"/>
+    <col min="41" max="42" width="22.5546875" customWidth="1"/>
+    <col min="43" max="43" width="24.44140625" customWidth="1"/>
+    <col min="44" max="44" width="20.109375" customWidth="1"/>
+    <col min="45" max="45" width="19.109375" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" customWidth="1"/>
+    <col min="47" max="47" width="23.5546875" customWidth="1"/>
+    <col min="48" max="48" width="29.6640625" customWidth="1"/>
+    <col min="49" max="49" width="28.88671875" customWidth="1"/>
+    <col min="50" max="55" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>548</v>
       </c>
@@ -10002,7 +10005,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>559</v>
       </c>
@@ -10075,7 +10078,7 @@
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>602</v>
       </c>
@@ -10148,7 +10151,7 @@
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>562</v>
       </c>
@@ -10237,7 +10240,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>565</v>
       </c>
@@ -10310,7 +10313,7 @@
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>566</v>
       </c>
@@ -10389,7 +10392,7 @@
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>569</v>
       </c>
@@ -10472,7 +10475,7 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>572</v>
       </c>
@@ -10563,7 +10566,7 @@
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>577</v>
       </c>
@@ -10654,7 +10657,7 @@
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>578</v>
       </c>
@@ -10751,7 +10754,7 @@
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>581</v>
       </c>
@@ -10848,7 +10851,7 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>583</v>
       </c>
@@ -10947,7 +10950,7 @@
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>585</v>
       </c>
@@ -11046,7 +11049,7 @@
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>586</v>
       </c>
@@ -11145,7 +11148,7 @@
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>587</v>
       </c>
@@ -11248,7 +11251,7 @@
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>598</v>
       </c>
@@ -11355,7 +11358,7 @@
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>599</v>
       </c>
@@ -11462,7 +11465,7 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>600</v>
       </c>
@@ -11569,7 +11572,7 @@
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>601</v>
       </c>
@@ -11676,7 +11679,7 @@
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>603</v>
       </c>
@@ -11749,7 +11752,7 @@
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>604</v>
       </c>
@@ -11822,7 +11825,7 @@
       <c r="BB22" s="2"/>
       <c r="BC22" s="2"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>605</v>
       </c>
@@ -11895,7 +11898,7 @@
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>606</v>
       </c>
@@ -11968,7 +11971,7 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>607</v>
       </c>
@@ -12041,7 +12044,7 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>609</v>
       </c>
@@ -12114,7 +12117,7 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>610</v>
       </c>
@@ -12187,7 +12190,7 @@
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>611</v>
       </c>
@@ -12323,20 +12326,20 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12383,7 +12386,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -12426,7 +12429,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>468</v>
       </c>
@@ -12469,7 +12472,7 @@
       </c>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>470</v>
       </c>
@@ -12514,7 +12517,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>472</v>
       </c>
@@ -12557,7 +12560,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>473</v>
       </c>
